--- a/WebProjectQUİZ.xlsx
+++ b/WebProjectQUİZ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MONSTER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MONSTER\Desktop\BitirmeProjesiWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225C7E5E-1AA8-4682-88E6-70533B69A3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA358756-6425-40F3-A74C-6A526D39E91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>ADMİN</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>KULLANICI GİRİŞİ İÇİN CONTROLLERda API OLUŞTUR</t>
+  </si>
+  <si>
+    <t>admin yeni test arayüzü yapılıyor</t>
+  </si>
+  <si>
+    <t>güncelleme yaparken test name değiştiriyorsak slug da değişmeli</t>
+  </si>
+  <si>
+    <t>soru ve sorunun cevaplarına foto/video eklemesi kaydedilmesi yapılacak</t>
   </si>
 </sst>
 </file>
@@ -497,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,20 +592,20 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -717,6 +726,25 @@
         <v>33</v>
       </c>
       <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
